--- a/Design/Data Model/Data Modelling.xlsx
+++ b/Design/Data Model/Data Modelling.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25207"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{929D6BFD-2955-435C-BF61-D712F6D6241F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="650" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7754602-5AD1-44B9-9602-23E7A622580E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12-04-2022" sheetId="1" r:id="rId1"/>
+    <sheet name="13-04-2022" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="104">
   <si>
     <t xml:space="preserve">              Organisation</t>
   </si>
@@ -267,13 +268,85 @@
   </si>
   <si>
     <t>08.04.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Status</t>
+  </si>
+  <si>
+    <t>Status Id</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>Award Request</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>RequesterID</t>
+  </si>
+  <si>
+    <t>AwardeeID</t>
+  </si>
+  <si>
+    <t>Reject Reason</t>
+  </si>
+  <si>
+    <t>CouponCode</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>StatusID</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>CPM0830</t>
+  </si>
+  <si>
+    <t>asdfbahnh</t>
+  </si>
+  <si>
+    <t>10.04.2022</t>
+  </si>
+  <si>
+    <t>jdhvjhhbkoj</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>PostID</t>
+  </si>
+  <si>
+    <t>Congrats</t>
+  </si>
+  <si>
+    <t>Best wishes</t>
+  </si>
+  <si>
+    <t>Good Job</t>
+  </si>
+  <si>
+    <t>Congratulations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +393,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -335,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -397,12 +476,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -411,19 +519,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -742,14 +935,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14" style="8" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
@@ -776,24 +967,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="48"/>
       <c r="G3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="P3" s="10" t="s">
+      <c r="L3" s="16"/>
+      <c r="P3" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:18">
       <c r="B4"/>
-      <c r="P4" s="9"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:18">
       <c r="B5"/>
@@ -806,7 +997,7 @@
       <c r="O5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="5" t="s">
@@ -841,7 +1032,7 @@
       <c r="O6" s="1">
         <v>401</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -876,7 +1067,7 @@
       <c r="O7" s="1">
         <v>402</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="Q7" s="2" t="s">
@@ -911,7 +1102,7 @@
       <c r="O8" s="1">
         <v>403</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -944,7 +1135,7 @@
         <v>28</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="11"/>
+      <c r="P9" s="10"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="1"/>
     </row>
@@ -961,7 +1152,7 @@
         <v>29</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="11"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="1"/>
     </row>
@@ -973,17 +1164,17 @@
       <c r="H11" s="1"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="H15" s="9"/>
+      <c r="H15" s="8"/>
       <c r="J15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="H16" s="9"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="H17" s="9"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:20">
       <c r="G18" s="2" t="s">
@@ -1018,13 +1209,13 @@
       <c r="G19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>39</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -1140,7 +1331,7 @@
       <c r="I23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="12" t="s">
         <v>53</v>
       </c>
       <c r="K23" s="2">
@@ -1169,7 +1360,7 @@
       <c r="I24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="12" t="s">
         <v>56</v>
       </c>
       <c r="K24" s="2">
@@ -1222,7 +1413,6 @@
       <c r="E30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="8"/>
       <c r="H30" s="1" t="s">
         <v>65</v>
       </c>
@@ -1247,7 +1437,7 @@
       <c r="P30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q30" s="16" t="s">
+      <c r="Q30" s="13" t="s">
         <v>62</v>
       </c>
       <c r="R30" s="1" t="s">
@@ -1276,7 +1466,6 @@
       <c r="E31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="8"/>
       <c r="H31" s="2" t="s">
         <v>51</v>
       </c>
@@ -1301,7 +1490,7 @@
       <c r="P31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="Q31" s="13">
         <v>1</v>
       </c>
       <c r="R31" s="2">
@@ -1320,7 +1509,6 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="8"/>
       <c r="H32" s="1"/>
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
@@ -1329,7 +1517,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="16"/>
+      <c r="Q32" s="13"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -1340,7 +1528,6 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="8"/>
       <c r="H33" s="1"/>
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
@@ -1349,38 +1536,16 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="16"/>
+      <c r="Q33" s="13"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
+      <c r="B34"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="B35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1398,4 +1563,1892 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4324AD0D-31FB-41F0-9677-BC11E7FDC722}">
+  <dimension ref="A1:Z59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="2:22">
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" s="44"/>
+      <c r="S3" s="19"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="V4" s="19"/>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="I5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="19"/>
+      <c r="V5" s="19"/>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="23">
+        <v>401</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="20">
+        <v>1</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="S6" s="19"/>
+      <c r="V6" s="19"/>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="24">
+        <v>123</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="24">
+        <v>111</v>
+      </c>
+      <c r="F7" s="24">
+        <v>123</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="23">
+        <v>402</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="20">
+        <v>2</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="19"/>
+      <c r="V7" s="19"/>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="24">
+        <v>124</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="24">
+        <v>112</v>
+      </c>
+      <c r="F8" s="24">
+        <v>124</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="23">
+        <v>3</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="23">
+        <v>403</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="20">
+        <v>3</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" s="19"/>
+      <c r="V8" s="19"/>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="24">
+        <v>125</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="24">
+        <v>113</v>
+      </c>
+      <c r="F9" s="24">
+        <v>123</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="23">
+        <v>4</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="35"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="20">
+        <v>4</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" s="19"/>
+      <c r="V9" s="19"/>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="I10" s="23">
+        <v>5</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="35"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" s="28"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" s="28"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" s="28"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="28"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" s="28"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="B17" s="28"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="B18" s="28"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="B19" s="28"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="B20" s="28"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="24">
+        <v>1</v>
+      </c>
+      <c r="L20" s="24">
+        <v>123</v>
+      </c>
+      <c r="M20" s="24">
+        <v>111</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="B21" s="28"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="24">
+        <v>5</v>
+      </c>
+      <c r="L21" s="24">
+        <v>123</v>
+      </c>
+      <c r="M21" s="24">
+        <v>111</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="B22" s="28"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="24">
+        <v>4</v>
+      </c>
+      <c r="L22" s="24">
+        <v>123</v>
+      </c>
+      <c r="M22" s="24">
+        <v>111</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="B23" s="28"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="24">
+        <v>3</v>
+      </c>
+      <c r="L23" s="24">
+        <v>123</v>
+      </c>
+      <c r="M23" s="24">
+        <v>111</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="B24" s="28"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="24">
+        <v>2</v>
+      </c>
+      <c r="L24" s="24">
+        <v>123</v>
+      </c>
+      <c r="M24" s="24">
+        <v>113</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="B25" s="28"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="B26" s="28"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="17"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="17"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="17"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="17"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="P30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="R30" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="S30" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="T30" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="U30" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="V30" s="19"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="18"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="24">
+        <v>1</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="23">
+        <v>401</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="23">
+        <v>1</v>
+      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="24">
+        <v>1</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31" s="23">
+        <v>401</v>
+      </c>
+      <c r="Q31" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="R31" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="S31" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="T31" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="U31" s="23">
+        <v>4</v>
+      </c>
+      <c r="V31" s="19"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="17"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="23">
+        <v>2</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" s="23">
+        <v>403</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="R32" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="S32" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="T32" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="U32" s="23">
+        <v>1</v>
+      </c>
+      <c r="V32" s="19"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="17"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="19"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="B35" s="19"/>
+      <c r="C35" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" s="19"/>
+      <c r="M35" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="O35" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="P35" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="R35" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="S35" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="T35" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="U35" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="V35" s="19"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="B36" s="19"/>
+      <c r="C36" s="24">
+        <v>1</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="23">
+        <v>401</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" s="23">
+        <v>2</v>
+      </c>
+      <c r="L36" s="19"/>
+      <c r="M36" s="24">
+        <v>1</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O36" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="P36" s="23">
+        <v>401</v>
+      </c>
+      <c r="Q36" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="R36" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="S36" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="T36" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="U36" s="23">
+        <v>4</v>
+      </c>
+      <c r="V36" s="19"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="B37" s="19"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="23">
+        <v>2</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="23">
+        <v>403</v>
+      </c>
+      <c r="Q37" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="R37" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="S37" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="T37" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="U37" s="23">
+        <v>3</v>
+      </c>
+      <c r="V37" s="19"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="B38" s="19"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="19"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="B40" s="19"/>
+      <c r="C40" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="22"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="B41" s="19"/>
+      <c r="C41" s="24">
+        <v>1</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="23">
+        <v>401</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41" s="23">
+        <v>4</v>
+      </c>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="B42" s="19"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="B43" s="19"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+    </row>
+    <row r="49" spans="2:22">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+    </row>
+    <row r="50" spans="2:22">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+    </row>
+    <row r="51" spans="2:22">
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+    </row>
+    <row r="52" spans="2:22">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="23">
+        <v>1</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="23">
+        <v>1</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+    </row>
+    <row r="53" spans="2:22">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="23">
+        <v>2</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="23">
+        <v>1</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+    </row>
+    <row r="54" spans="2:22">
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="23">
+        <v>3</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" s="23">
+        <v>1</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+    </row>
+    <row r="55" spans="2:22">
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="23">
+        <v>4</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="23">
+        <v>2</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+    </row>
+    <row r="56" spans="2:22">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+    </row>
+    <row r="57" spans="2:22">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+    </row>
+    <row r="58" spans="2:22">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+    </row>
+    <row r="59" spans="2:22">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J20" r:id="rId1" xr:uid="{4C671289-7595-4D00-A117-C6A6C29B1032}"/>
+    <hyperlink ref="J21:J22" r:id="rId2" display="arvinth@aspire.com" xr:uid="{0C572672-CACF-4DAB-8A39-1BBEB93B1C0C}"/>
+    <hyperlink ref="J21" r:id="rId3" xr:uid="{E2AB9DDE-B8CD-40D7-A642-324878BE773F}"/>
+    <hyperlink ref="J22" r:id="rId4" xr:uid="{5CC4395A-5D82-4A77-88E1-365551200A98}"/>
+    <hyperlink ref="J19" r:id="rId5" xr:uid="{85000D5A-5427-4848-8BC0-F36AD9F0E1CE}"/>
+    <hyperlink ref="J23" r:id="rId6" xr:uid="{865D152B-8EBC-48EB-BD43-AE56A627F111}"/>
+    <hyperlink ref="J24" r:id="rId7" xr:uid="{F15902E5-CD08-4456-9D63-7CCE62E1D131}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>